--- a/medicine/Pharmacie/Carine_Wolf-Thal/Carine_Wolf-Thal.xlsx
+++ b/medicine/Pharmacie/Carine_Wolf-Thal/Carine_Wolf-Thal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carine Wolf-Thal est une pharmacienne française et présidente du Conseil national de l'Ordre des pharmaciens.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carine Wolf-Thal commence sa carrière dans l’industrie pharmaceutique[1] après l'obtention de son diplôme en 1991[2]. Elle devient pharmacien titulaire d'une pharmacie d'officine à Rouen en 2007[2].
-En 2017, elle devient présidente du Conseil national de l'Ordre des pharmaciens à la suite d'Isabelle Adenot[1],[3]. Auparavant, elle était membre du conseil national depuis deux ans[1]. Elle est ré-élue en 2019[4]et en 2022[5].
-Dans le cadre de cette fonction, elle se prononce en faveur de la prescription de certains médicaments par les pharmaciens en 2018 alors que des débats parlementaires se profilent[6]. Elle réagit également en faveur des déclarations de la ministre de la santé, Agnès Buzyn opposée à la vente de médicaments en supermarché comme recommandé par l'Autorité de la concurrence puisque cela a le potentiel d'amplifier les déserts médicaux[7]. Elle s'exprime sur les déserts pharmaceutiques[8] et explique par d'ailleurs le rôle en première ligne des pharmaciens dans le monde de la santé dans le journal Le Monde[9]. Elle évoque les mécanismes de pénurie de médicaments devenus plus fréquents[10],[11] ou informe de l'augmentation des agressions de pharmaciens[12],[13].
-Durant la pandémie de Covid-19, elle demande à ce que les pharmaciens puissent vendre des masques aux normes Afnor[14] car les pharmacie d'officine n'avaient pas l'autorisation de les vendre[15]. Elle intervient aussi devant la pénurie d'autotests car ceux-ci deviennent gratuits dans le cadre du nouveau protocole d'isolement et sans que les pharmacies aient le temps de s'organiser[16],[17].
-En 2021, elle est élue présidente de la Confédération internationale des Ordres de pharmaciens francophones[18],[19].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carine Wolf-Thal commence sa carrière dans l’industrie pharmaceutique après l'obtention de son diplôme en 1991. Elle devient pharmacien titulaire d'une pharmacie d'officine à Rouen en 2007.
+En 2017, elle devient présidente du Conseil national de l'Ordre des pharmaciens à la suite d'Isabelle Adenot,. Auparavant, elle était membre du conseil national depuis deux ans. Elle est ré-élue en 2019et en 2022.
+Dans le cadre de cette fonction, elle se prononce en faveur de la prescription de certains médicaments par les pharmaciens en 2018 alors que des débats parlementaires se profilent. Elle réagit également en faveur des déclarations de la ministre de la santé, Agnès Buzyn opposée à la vente de médicaments en supermarché comme recommandé par l'Autorité de la concurrence puisque cela a le potentiel d'amplifier les déserts médicaux. Elle s'exprime sur les déserts pharmaceutiques et explique par d'ailleurs le rôle en première ligne des pharmaciens dans le monde de la santé dans le journal Le Monde. Elle évoque les mécanismes de pénurie de médicaments devenus plus fréquents, ou informe de l'augmentation des agressions de pharmaciens,.
+Durant la pandémie de Covid-19, elle demande à ce que les pharmaciens puissent vendre des masques aux normes Afnor car les pharmacie d'officine n'avaient pas l'autorisation de les vendre. Elle intervient aussi devant la pénurie d'autotests car ceux-ci deviennent gratuits dans le cadre du nouveau protocole d'isolement et sans que les pharmacies aient le temps de s'organiser,.
+En 2021, elle est élue présidente de la Confédération internationale des Ordres de pharmaciens francophones,.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carine Wolf-Thal  est décorée chevalière de la légion d'honneur en 2022[20],[21].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carine Wolf-Thal  est décorée chevalière de la légion d'honneur en 2022,.
 </t>
         </is>
       </c>
